--- a/data/trans_orig/P36BPD05_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D80A42B5-A859-46CA-88FA-9C6EC755FC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79BA8A84-3905-40DB-AE2E-3AE2B2192ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C502B652-441B-4263-AF27-60BA878B402A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C3EAB14-FF66-4C11-99D0-4BC8F2E651CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población según el número de raciones de carnes rojas, hamburguesas, salchichas o embutidos que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -74,388 +74,400 @@
     <t>38,86%</t>
   </si>
   <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>Menos de una al día</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>Menos de una al día</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>67,98%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287903C1-50A7-4E9D-B1EC-AAE4D553B0AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950F6B38-0B2F-40F1-9A71-667BCCE88076}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1644,13 +1656,13 @@
         <v>332153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1677,13 @@
         <v>409622</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>764</v>
@@ -1680,13 +1692,13 @@
         <v>448469</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1226</v>
@@ -1695,13 +1707,13 @@
         <v>858091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1781,13 @@
         <v>204433</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>361</v>
@@ -1784,13 +1796,13 @@
         <v>318966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>647</v>
@@ -1799,13 +1811,13 @@
         <v>523399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1832,13 @@
         <v>489297</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1341</v>
@@ -1835,13 +1847,13 @@
         <v>704347</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>2077</v>
@@ -1850,13 +1862,13 @@
         <v>1193645</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1936,13 @@
         <v>1138813</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1363</v>
@@ -1939,13 +1951,13 @@
         <v>1158521</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>2385</v>
@@ -1954,13 +1966,13 @@
         <v>2297333</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,16 +1984,16 @@
         <v>2344</v>
       </c>
       <c r="D23" s="7">
-        <v>2237832</v>
+        <v>2237833</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3984</v>
@@ -1990,13 +2002,13 @@
         <v>2639182</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6328</v>
@@ -2005,13 +2017,13 @@
         <v>4877015</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,7 +2035,7 @@
         <v>3366</v>
       </c>
       <c r="D24" s="7">
-        <v>3376645</v>
+        <v>3376646</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2067,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD05_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79BA8A84-3905-40DB-AE2E-3AE2B2192ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F811DD6-597D-409E-BDE4-DC80FEE12A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C3EAB14-FF66-4C11-99D0-4BC8F2E651CC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C7E2E625-329B-42BC-B49B-5825B0A7AF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>Población según el número de raciones de carnes rojas, hamburguesas, salchichas o embutidos que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -65,409 +65,466 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Una o más de una ración</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
   </si>
   <si>
     <t>62,72%</t>
   </si>
   <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>35/44</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>67,29%</t>
   </si>
   <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +939,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950F6B38-0B2F-40F1-9A71-667BCCE88076}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FB40C7-70E1-4639-A8FE-8060164D108A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1060,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="7">
-        <v>146748</v>
+        <v>152782</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1075,7 @@
         <v>73</v>
       </c>
       <c r="I4" s="7">
-        <v>131958</v>
+        <v>112731</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1090,7 @@
         <v>138</v>
       </c>
       <c r="N4" s="7">
-        <v>278706</v>
+        <v>265513</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1111,7 @@
         <v>107</v>
       </c>
       <c r="D5" s="7">
-        <v>230931</v>
+        <v>247205</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1126,7 @@
         <v>133</v>
       </c>
       <c r="I5" s="7">
-        <v>221962</v>
+        <v>199521</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1141,7 @@
         <v>240</v>
       </c>
       <c r="N5" s="7">
-        <v>452893</v>
+        <v>446726</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1162,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1177,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>353920</v>
+        <v>312252</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1192,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>731599</v>
+        <v>712239</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1215,7 @@
         <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>168890</v>
+        <v>163444</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1230,7 @@
         <v>161</v>
       </c>
       <c r="I7" s="7">
-        <v>190804</v>
+        <v>226292</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1188,7 +1245,7 @@
         <v>277</v>
       </c>
       <c r="N7" s="7">
-        <v>359695</v>
+        <v>389736</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1209,7 +1266,7 @@
         <v>186</v>
       </c>
       <c r="D8" s="7">
-        <v>259506</v>
+        <v>260103</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1224,7 +1281,7 @@
         <v>299</v>
       </c>
       <c r="I8" s="7">
-        <v>307773</v>
+        <v>285212</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1239,7 +1296,7 @@
         <v>485</v>
       </c>
       <c r="N8" s="7">
-        <v>567278</v>
+        <v>545315</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1260,7 +1317,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1332,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1347,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1313,7 +1370,7 @@
         <v>167</v>
       </c>
       <c r="D10" s="7">
-        <v>182259</v>
+        <v>169964</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1328,7 +1385,7 @@
         <v>245</v>
       </c>
       <c r="I10" s="7">
-        <v>177647</v>
+        <v>161678</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1343,7 +1400,7 @@
         <v>412</v>
       </c>
       <c r="N10" s="7">
-        <v>359905</v>
+        <v>331641</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1364,7 +1421,7 @@
         <v>379</v>
       </c>
       <c r="D11" s="7">
-        <v>374993</v>
+        <v>366374</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1379,7 +1436,7 @@
         <v>601</v>
       </c>
       <c r="I11" s="7">
-        <v>405829</v>
+        <v>380790</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1394,7 +1451,7 @@
         <v>980</v>
       </c>
       <c r="N11" s="7">
-        <v>780822</v>
+        <v>747165</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1415,7 +1472,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1487,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1502,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1468,7 +1525,7 @@
         <v>190</v>
       </c>
       <c r="D13" s="7">
-        <v>249471</v>
+        <v>431137</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1483,7 +1540,7 @@
         <v>291</v>
       </c>
       <c r="I13" s="7">
-        <v>194005</v>
+        <v>175550</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1498,7 +1555,7 @@
         <v>481</v>
       </c>
       <c r="N13" s="7">
-        <v>443476</v>
+        <v>606687</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1519,7 +1576,7 @@
         <v>474</v>
       </c>
       <c r="D14" s="7">
-        <v>473483</v>
+        <v>455645</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1534,7 +1591,7 @@
         <v>846</v>
       </c>
       <c r="I14" s="7">
-        <v>550802</v>
+        <v>535010</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1549,7 +1606,7 @@
         <v>1320</v>
       </c>
       <c r="N14" s="7">
-        <v>1024284</v>
+        <v>990655</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1570,7 +1627,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722954</v>
+        <v>886782</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1642,7 @@
         <v>1137</v>
       </c>
       <c r="I15" s="7">
-        <v>744807</v>
+        <v>710560</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1657,7 @@
         <v>1801</v>
       </c>
       <c r="N15" s="7">
-        <v>1467760</v>
+        <v>1597342</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1623,7 +1680,7 @@
         <v>198</v>
       </c>
       <c r="D16" s="7">
-        <v>187012</v>
+        <v>168829</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1638,7 +1695,7 @@
         <v>232</v>
       </c>
       <c r="I16" s="7">
-        <v>145141</v>
+        <v>129531</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1653,7 +1710,7 @@
         <v>430</v>
       </c>
       <c r="N16" s="7">
-        <v>332153</v>
+        <v>298360</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1674,7 +1731,7 @@
         <v>462</v>
       </c>
       <c r="D17" s="7">
-        <v>409622</v>
+        <v>389184</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1689,7 +1746,7 @@
         <v>764</v>
       </c>
       <c r="I17" s="7">
-        <v>448469</v>
+        <v>415226</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1704,7 +1761,7 @@
         <v>1226</v>
       </c>
       <c r="N17" s="7">
-        <v>858091</v>
+        <v>804410</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1725,7 +1782,7 @@
         <v>660</v>
       </c>
       <c r="D18" s="7">
-        <v>596634</v>
+        <v>558013</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1797,7 @@
         <v>996</v>
       </c>
       <c r="I18" s="7">
-        <v>593610</v>
+        <v>544757</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1812,7 @@
         <v>1656</v>
       </c>
       <c r="N18" s="7">
-        <v>1190244</v>
+        <v>1102770</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1775,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="D19" s="7">
-        <v>204433</v>
+        <v>107734</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1790,10 +1847,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>361</v>
+        <v>185</v>
       </c>
       <c r="I19" s="7">
-        <v>318966</v>
+        <v>298868</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1805,10 +1862,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>647</v>
+        <v>350</v>
       </c>
       <c r="N19" s="7">
-        <v>523399</v>
+        <v>406603</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1826,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>736</v>
+        <v>402</v>
       </c>
       <c r="D20" s="7">
-        <v>489297</v>
+        <v>258204</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1841,10 +1898,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>1341</v>
+        <v>640</v>
       </c>
       <c r="I20" s="7">
-        <v>704347</v>
+        <v>308369</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1856,10 +1913,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>2077</v>
+        <v>1042</v>
       </c>
       <c r="N20" s="7">
-        <v>1193645</v>
+        <v>566573</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1877,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1022</v>
+        <v>567</v>
       </c>
       <c r="D21" s="7">
-        <v>693730</v>
+        <v>365938</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1949,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1702</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1023313</v>
+        <v>607237</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1964,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2724</v>
+        <v>1392</v>
       </c>
       <c r="N21" s="7">
-        <v>1717044</v>
+        <v>973176</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1981,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1022</v>
+        <v>121</v>
       </c>
       <c r="D22" s="7">
-        <v>1138813</v>
+        <v>77291</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1363</v>
+        <v>176</v>
       </c>
       <c r="I22" s="7">
-        <v>1158521</v>
+        <v>90029</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>2385</v>
+        <v>297</v>
       </c>
       <c r="N22" s="7">
-        <v>2297333</v>
+        <v>167320</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2038,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2344</v>
+        <v>334</v>
       </c>
       <c r="D23" s="7">
-        <v>2237833</v>
+        <v>203913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>3984</v>
+        <v>701</v>
       </c>
       <c r="I23" s="7">
-        <v>2639182</v>
+        <v>333860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>6328</v>
+        <v>1035</v>
       </c>
       <c r="N23" s="7">
-        <v>4877015</v>
+        <v>537773</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2089,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>455</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281204</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>877</v>
+      </c>
+      <c r="I24" s="7">
+        <v>423889</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1332</v>
+      </c>
+      <c r="N24" s="7">
+        <v>705093</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1022</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1271181</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1363</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1194680</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2385</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2465861</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2344</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2180628</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3984</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2457987</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6328</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4638616</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3366</v>
       </c>
-      <c r="D24" s="7">
-        <v>3376646</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3451809</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5347</v>
       </c>
-      <c r="I24" s="7">
-        <v>3797703</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3652667</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8713</v>
       </c>
-      <c r="N24" s="7">
-        <v>7174348</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7104477</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
